--- a/_extrafiles/MCM_TEXTOS.xlsx
+++ b/_extrafiles/MCM_TEXTOS.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Google Drive\Treinamento\20200104_site_eng\_extrafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5eb6904430fc4be/Documentos/GitHub/mcm-desc/_extrafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{230B6692-27E3-4EFF-B962-5346FD81FFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{230B6692-27E3-4EFF-B962-5346FD81FFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D755965-62A2-437C-9E1C-F165BFCDA76F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{147393BA-C743-4925-B695-36468CFE5938}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{147393BA-C743-4925-B695-36468CFE5938}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>TIPO DE MATERIAL</t>
   </si>
@@ -92,12 +87,28 @@
   <si>
     <t>DE / PARA</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Documento criado por: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOME_PROJETOS</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +128,14 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -460,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7519F2DC-B77F-41A9-B462-5E0F96E1FCAF}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,4 +566,102 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9337D534-4EB4-41D6-AC29-7B6460C81299}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>